--- a/Data/CPUE/jpn_cpue.xlsx
+++ b/Data/CPUE/jpn_cpue.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="cpue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -76,6 +76,12 @@
   <si>
     <t>s4</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>fleet</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,10 +152,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -477,1398 +486,1863 @@
     <col min="1" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1976</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.44130000000000003</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0.1011</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>1977</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.38009999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>0.1012</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>1978</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.39340000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>1979</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.35959999999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>1980</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.24879999999999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>1981</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>1982</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.46729999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>0.1265</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>1983</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
         <v>0.45129999999999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>1984</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
         <v>0.3644</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>1985</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.44290000000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>0.1067</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>1986</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.5363</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>0.19339999999999999</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>1987</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.60570000000000002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>0.24460000000000001</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>1988</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.49230000000000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>0.1411</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>1989</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.42570000000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>0.1188</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>1990</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.34260000000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>1991</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
         <v>0.42149999999999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>1992</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
         <v>0.42259999999999998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>0.1144</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>1993</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.4662</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>0.16089999999999999</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>1976</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.33090000000000003</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="6">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>1977</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.31459999999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="6">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>1978</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6">
         <v>0.26140000000000002</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="6">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>1979</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6">
         <v>0.25119999999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="6">
         <v>2.46E-2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>1980</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.45660000000000001</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="6">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>1981</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6">
         <v>0.25769999999999998</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="6">
         <v>1.66E-2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>1982</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6">
         <v>0.28560000000000002</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="6">
         <v>2.63E-2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>1983</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6">
         <v>0.34110000000000001</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="6">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>1984</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6">
         <v>0.35709999999999997</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="6">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>1985</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6">
         <v>0.34870000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="6">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>1986</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6">
         <v>0.35949999999999999</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="6">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>1987</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6">
         <v>0.43419999999999997</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="6">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>1988</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.41010000000000002</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="6">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>1989</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.34039999999999998</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="6">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>1990</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6">
         <v>0.33739999999999998</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="6">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>1991</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.27560000000000001</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>1992</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>22</v>
+      </c>
+      <c r="D36" s="6">
         <v>0.25640000000000002</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="6">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>1993</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6">
         <v>0.2266</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="6">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>1994</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4">
         <v>0.41970000000000002</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>1995</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21</v>
+      </c>
+      <c r="D39" s="4">
         <v>0.35770000000000002</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>1996</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4">
         <v>0.41</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>0.1212</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>1997</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4">
         <v>0.45960000000000001</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>0.1212</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>1998</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>21</v>
+      </c>
+      <c r="D42" s="4">
         <v>0.35649999999999998</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>1999</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>21</v>
+      </c>
+      <c r="D43" s="4">
         <v>0.36709999999999998</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>0.1022</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>2000</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>21</v>
+      </c>
+      <c r="D44" s="4">
         <v>0.43869999999999998</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>2001</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>21</v>
+      </c>
+      <c r="D45" s="4">
         <v>0.39679999999999999</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>0.12189999999999999</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>2002</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>21</v>
+      </c>
+      <c r="D46" s="4">
         <v>0.37830000000000003</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>0.1202</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>2003</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>21</v>
+      </c>
+      <c r="D47" s="4">
         <v>0.27239999999999998</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>2004</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21</v>
+      </c>
+      <c r="D48" s="4">
         <v>0.27579999999999999</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>2005</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4">
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>21</v>
+      </c>
+      <c r="D49" s="4">
         <v>0.29949999999999999</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>2006</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>21</v>
+      </c>
+      <c r="D50" s="4">
         <v>0.3332</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>2007</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>21</v>
+      </c>
+      <c r="D51" s="4">
         <v>0.38540000000000002</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>2008</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>21</v>
+      </c>
+      <c r="D52" s="4">
         <v>0.25829999999999997</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>2009</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>21</v>
+      </c>
+      <c r="D53" s="4">
         <v>0.34570000000000001</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>2010</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>21</v>
+      </c>
+      <c r="D54" s="4">
         <v>0.31509999999999999</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
         <v>2011</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4">
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>21</v>
+      </c>
+      <c r="D55" s="4">
         <v>0.30280000000000001</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
         <v>2012</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>21</v>
+      </c>
+      <c r="D56" s="4">
         <v>0.30159999999999998</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
         <v>2013</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>21</v>
+      </c>
+      <c r="D57" s="4">
         <v>0.29189999999999999</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
         <v>2014</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>21</v>
+      </c>
+      <c r="D58" s="4">
         <v>0.30030000000000001</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3">
         <v>2015</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>21</v>
+      </c>
+      <c r="D59" s="4">
         <v>0.31040000000000001</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3">
         <v>2016</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <v>21</v>
+      </c>
+      <c r="D60" s="4">
         <v>0.42849999999999999</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>0.1128</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3">
         <v>2017</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>21</v>
+      </c>
+      <c r="D61" s="4">
         <v>0.50849999999999995</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>0.13869999999999999</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="3">
         <v>2018</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>21</v>
+      </c>
+      <c r="D62" s="4">
         <v>0.66920000000000002</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>0.2243</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="3">
         <v>2019</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>21</v>
+      </c>
+      <c r="D63" s="4">
         <v>0.48959999999999998</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>0.15279999999999999</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="3">
         <v>2020</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>21</v>
+      </c>
+      <c r="D64" s="4">
         <v>0.47210000000000002</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>0.1447</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>2021</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="5">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>21</v>
+      </c>
+      <c r="D65" s="5">
         <v>0.39989999999999998</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="5">
         <v>0.10920000000000001</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="3">
         <v>1994</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3">
+        <v>23</v>
+      </c>
+      <c r="D66" s="4">
         <v>0.27329999999999999</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="3">
         <v>1995</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>23</v>
+      </c>
+      <c r="D67" s="4">
         <v>0.20730000000000001</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="3">
         <v>1996</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>23</v>
+      </c>
+      <c r="D68" s="4">
         <v>0.31759999999999999</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="3">
         <v>1997</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>23</v>
+      </c>
+      <c r="D69" s="4">
         <v>0.28060000000000002</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="3">
         <v>1998</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>23</v>
+      </c>
+      <c r="D70" s="4">
         <v>0.28039999999999998</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="3">
         <v>1999</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>23</v>
+      </c>
+      <c r="D71" s="4">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="3">
         <v>2000</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4">
         <v>0.31659999999999999</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="3">
         <v>2001</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4">
         <v>0.3488</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="3">
         <v>2002</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4">
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>23</v>
+      </c>
+      <c r="D74" s="4">
         <v>0.31990000000000002</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="3">
         <v>2003</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>23</v>
+      </c>
+      <c r="D75" s="4">
         <v>0.27810000000000001</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="3">
         <v>2004</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>23</v>
+      </c>
+      <c r="D76" s="4">
         <v>0.24679999999999999</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="3">
         <v>2005</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>23</v>
+      </c>
+      <c r="D77" s="4">
         <v>0.24360000000000001</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="3">
         <v>2006</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="4">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>23</v>
+      </c>
+      <c r="D78" s="4">
         <v>0.29959999999999998</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="3">
         <v>2007</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3">
+        <v>23</v>
+      </c>
+      <c r="D79" s="4">
         <v>0.33360000000000001</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="3">
         <v>2008</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>23</v>
+      </c>
+      <c r="D80" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="3">
         <v>2009</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>23</v>
+      </c>
+      <c r="D81" s="4">
         <v>0.32069999999999999</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
         <v>2010</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>23</v>
+      </c>
+      <c r="D82" s="4">
         <v>0.25090000000000001</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="3">
         <v>2011</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>23</v>
+      </c>
+      <c r="D83" s="4">
         <v>0.222</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>2012</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>23</v>
+      </c>
+      <c r="D84" s="4">
         <v>0.2031</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3">
         <v>2013</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>23</v>
+      </c>
+      <c r="D85" s="4">
         <v>0.20519999999999999</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>2014</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="4">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>23</v>
+      </c>
+      <c r="D86" s="4">
         <v>0.2031</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3">
         <v>2015</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>23</v>
+      </c>
+      <c r="D87" s="4">
         <v>0.30649999999999999</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>2016</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4">
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3">
+        <v>23</v>
+      </c>
+      <c r="D88" s="4">
         <v>0.30449999999999999</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="3">
         <v>2017</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>23</v>
+      </c>
+      <c r="D89" s="4">
         <v>0.21740000000000001</v>
       </c>
-      <c r="D89" s="4">
+      <c r="E89" s="4">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
         <v>2018</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3">
+        <v>23</v>
+      </c>
+      <c r="D90" s="4">
         <v>0.26750000000000002</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <v>7.17E-2</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="3">
         <v>2019</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="4">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3">
+        <v>23</v>
+      </c>
+      <c r="D91" s="4">
         <v>0.26569999999999999</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
         <v>2020</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="4">
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>23</v>
+      </c>
+      <c r="D92" s="4">
         <v>0.31340000000000001</v>
       </c>
-      <c r="D92" s="4">
+      <c r="E92" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>2021</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="5">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3">
+        <v>23</v>
+      </c>
+      <c r="D93" s="5">
         <v>0.39229999999999998</v>
       </c>
-      <c r="D93" s="5">
+      <c r="E93" s="5">
         <v>0.1114</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>10</v>
       </c>
     </row>
